--- a/src/main/resources/Haulmont .xlsx
+++ b/src/main/resources/Haulmont .xlsx
@@ -5,17 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="455" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="455" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="province" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="city" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4026" uniqueCount="3679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4310" uniqueCount="3963">
   <si>
     <t>District</t>
   </si>
@@ -11052,6 +11053,858 @@
   </si>
   <si>
     <t>Забайкальский район</t>
+  </si>
+  <si>
+    <t>Abakan</t>
+  </si>
+  <si>
+    <t>Абакан</t>
+  </si>
+  <si>
+    <t>Almetyevsk</t>
+  </si>
+  <si>
+    <t>Альметьевск</t>
+  </si>
+  <si>
+    <t>Anadyr</t>
+  </si>
+  <si>
+    <t>Анадырь</t>
+  </si>
+  <si>
+    <t>Anapa</t>
+  </si>
+  <si>
+    <t>Анапа</t>
+  </si>
+  <si>
+    <t>Arkhangelsk</t>
+  </si>
+  <si>
+    <t>Архангельск</t>
+  </si>
+  <si>
+    <t>Astrakhan</t>
+  </si>
+  <si>
+    <t>Астрахань</t>
+  </si>
+  <si>
+    <t>Barnaul</t>
+  </si>
+  <si>
+    <t>Барнаул</t>
+  </si>
+  <si>
+    <t>Belgorod</t>
+  </si>
+  <si>
+    <t>Белгород</t>
+  </si>
+  <si>
+    <t>Beslan</t>
+  </si>
+  <si>
+    <t>Беслан</t>
+  </si>
+  <si>
+    <t>Biysk</t>
+  </si>
+  <si>
+    <t>Бийск</t>
+  </si>
+  <si>
+    <t>Birobidzhan</t>
+  </si>
+  <si>
+    <t>Биробиджан</t>
+  </si>
+  <si>
+    <t>Blagoveshchensk</t>
+  </si>
+  <si>
+    <t>Благовещенск</t>
+  </si>
+  <si>
+    <t>Bologoye</t>
+  </si>
+  <si>
+    <t>Бологое</t>
+  </si>
+  <si>
+    <t>Bryansk</t>
+  </si>
+  <si>
+    <t>Брянск</t>
+  </si>
+  <si>
+    <t>Veliky Novgorod</t>
+  </si>
+  <si>
+    <t>Великий Новгород</t>
+  </si>
+  <si>
+    <t>Veliky Ustyug</t>
+  </si>
+  <si>
+    <t>Великий Устюг</t>
+  </si>
+  <si>
+    <t>Vladivostok</t>
+  </si>
+  <si>
+    <t>Владивосток</t>
+  </si>
+  <si>
+    <t>Vladikavkaz</t>
+  </si>
+  <si>
+    <t>Владикавказ</t>
+  </si>
+  <si>
+    <t>Vladimir</t>
+  </si>
+  <si>
+    <t>Владимир</t>
+  </si>
+  <si>
+    <t>Volgograd</t>
+  </si>
+  <si>
+    <t>Волгоград</t>
+  </si>
+  <si>
+    <t>Vologda</t>
+  </si>
+  <si>
+    <t>Вологда</t>
+  </si>
+  <si>
+    <t>Vorkuta</t>
+  </si>
+  <si>
+    <t>Воркута</t>
+  </si>
+  <si>
+    <t>Voronezh</t>
+  </si>
+  <si>
+    <t>Воронеж</t>
+  </si>
+  <si>
+    <t>Gatchina</t>
+  </si>
+  <si>
+    <t>Гатчина</t>
+  </si>
+  <si>
+    <t>Gdov</t>
+  </si>
+  <si>
+    <t>Гдов</t>
+  </si>
+  <si>
+    <t>Gelendzhik</t>
+  </si>
+  <si>
+    <t>Геленджик</t>
+  </si>
+  <si>
+    <t>Gorno-Altaysk</t>
+  </si>
+  <si>
+    <t>Горно-Алтайск</t>
+  </si>
+  <si>
+    <t>Grozny</t>
+  </si>
+  <si>
+    <t>Грозный</t>
+  </si>
+  <si>
+    <t>Gudermes</t>
+  </si>
+  <si>
+    <t>Гудермес</t>
+  </si>
+  <si>
+    <t>Gus-Khrustalny</t>
+  </si>
+  <si>
+    <t>Гусь-Хрустальный</t>
+  </si>
+  <si>
+    <t>Dzerzhinsk</t>
+  </si>
+  <si>
+    <t>Дзержинск</t>
+  </si>
+  <si>
+    <t>Dmitrov</t>
+  </si>
+  <si>
+    <t>Дмитров</t>
+  </si>
+  <si>
+    <t>Dubna</t>
+  </si>
+  <si>
+    <t>Дубна</t>
+  </si>
+  <si>
+    <t>Yeysk</t>
+  </si>
+  <si>
+    <t>Ейск</t>
+  </si>
+  <si>
+    <t>Yekaterinburg</t>
+  </si>
+  <si>
+    <t>Екатеринбург</t>
+  </si>
+  <si>
+    <t>Yelabuga</t>
+  </si>
+  <si>
+    <t>Елабуга</t>
+  </si>
+  <si>
+    <t>Yelets</t>
+  </si>
+  <si>
+    <t>Елец</t>
+  </si>
+  <si>
+    <t>Yessentuki</t>
+  </si>
+  <si>
+    <t>Ессентуки</t>
+  </si>
+  <si>
+    <t>Zlatoust</t>
+  </si>
+  <si>
+    <t>Златоуст</t>
+  </si>
+  <si>
+    <t>Ivanovo</t>
+  </si>
+  <si>
+    <t>Иваново</t>
+  </si>
+  <si>
+    <t>Izhevsk</t>
+  </si>
+  <si>
+    <t>Ижевск</t>
+  </si>
+  <si>
+    <t>Irkutsk</t>
+  </si>
+  <si>
+    <t>Иркутск</t>
+  </si>
+  <si>
+    <t>Yoshkar-Ola</t>
+  </si>
+  <si>
+    <t>Йошкар-Ола</t>
+  </si>
+  <si>
+    <t>Kazan</t>
+  </si>
+  <si>
+    <t>Казань</t>
+  </si>
+  <si>
+    <t>Kaliningrad</t>
+  </si>
+  <si>
+    <t>Калининград</t>
+  </si>
+  <si>
+    <t>Kaluga</t>
+  </si>
+  <si>
+    <t>Калуга</t>
+  </si>
+  <si>
+    <t>Kemerovo</t>
+  </si>
+  <si>
+    <t>Кемерово</t>
+  </si>
+  <si>
+    <t>Kislovodsk</t>
+  </si>
+  <si>
+    <t>Кисловодск</t>
+  </si>
+  <si>
+    <t>Komsomolsk-on-Amur</t>
+  </si>
+  <si>
+    <t>Комсомольск-на-Амуре</t>
+  </si>
+  <si>
+    <t>Kotlas</t>
+  </si>
+  <si>
+    <t>Котлас</t>
+  </si>
+  <si>
+    <t>Krasnodar</t>
+  </si>
+  <si>
+    <t>Краснодар</t>
+  </si>
+  <si>
+    <t>Krasnoyarsk</t>
+  </si>
+  <si>
+    <t>Красноярск</t>
+  </si>
+  <si>
+    <t>Kurgan</t>
+  </si>
+  <si>
+    <t>Курган</t>
+  </si>
+  <si>
+    <t>Kursk</t>
+  </si>
+  <si>
+    <t>Курск</t>
+  </si>
+  <si>
+    <t>Kyzyl</t>
+  </si>
+  <si>
+    <t>Кызыл</t>
+  </si>
+  <si>
+    <t>Leninogorsk</t>
+  </si>
+  <si>
+    <t>Лениногорск</t>
+  </si>
+  <si>
+    <t>Lensk</t>
+  </si>
+  <si>
+    <t>Ленск</t>
+  </si>
+  <si>
+    <t>Lipetsk</t>
+  </si>
+  <si>
+    <t>Липецк</t>
+  </si>
+  <si>
+    <t>Luga</t>
+  </si>
+  <si>
+    <t>Луга</t>
+  </si>
+  <si>
+    <t>Lyuban</t>
+  </si>
+  <si>
+    <t>Любань</t>
+  </si>
+  <si>
+    <t>Lyubertsy</t>
+  </si>
+  <si>
+    <t>Люберцы</t>
+  </si>
+  <si>
+    <t>Magadan</t>
+  </si>
+  <si>
+    <t>Магадан</t>
+  </si>
+  <si>
+    <t>Maykop</t>
+  </si>
+  <si>
+    <t>Майкоп</t>
+  </si>
+  <si>
+    <t>Makhachkala</t>
+  </si>
+  <si>
+    <t>Махачкала</t>
+  </si>
+  <si>
+    <t>Miass</t>
+  </si>
+  <si>
+    <t>Миасс</t>
+  </si>
+  <si>
+    <t>Mineralnye Vody</t>
+  </si>
+  <si>
+    <t>Минеральные Воды</t>
+  </si>
+  <si>
+    <t>Mirny</t>
+  </si>
+  <si>
+    <t>Мирный</t>
+  </si>
+  <si>
+    <t>Moscow</t>
+  </si>
+  <si>
+    <t>Москва</t>
+  </si>
+  <si>
+    <t>Murmansk</t>
+  </si>
+  <si>
+    <t>Мурманск</t>
+  </si>
+  <si>
+    <t>Murom</t>
+  </si>
+  <si>
+    <t>Муром</t>
+  </si>
+  <si>
+    <t>Mytishchi</t>
+  </si>
+  <si>
+    <t>Мытищи</t>
+  </si>
+  <si>
+    <t>Naberezhnye Chelny</t>
+  </si>
+  <si>
+    <t>Набережные Челны</t>
+  </si>
+  <si>
+    <t>Nadym</t>
+  </si>
+  <si>
+    <t>Надым</t>
+  </si>
+  <si>
+    <t>Nalchik</t>
+  </si>
+  <si>
+    <t>Нальчик</t>
+  </si>
+  <si>
+    <t>Nazran</t>
+  </si>
+  <si>
+    <t>Назрань</t>
+  </si>
+  <si>
+    <t>Naryan-Mar</t>
+  </si>
+  <si>
+    <t>Нарьян-Мар</t>
+  </si>
+  <si>
+    <t>Nakhodka</t>
+  </si>
+  <si>
+    <t>Находка</t>
+  </si>
+  <si>
+    <t>Nizhnevartovsk</t>
+  </si>
+  <si>
+    <t>Нижневартовск</t>
+  </si>
+  <si>
+    <t>Nizhnekamsk</t>
+  </si>
+  <si>
+    <t>Нижнекамск</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod</t>
+  </si>
+  <si>
+    <t>Нижний Новгород</t>
+  </si>
+  <si>
+    <t>Nizhny Tagil</t>
+  </si>
+  <si>
+    <t>Нижний Тагил</t>
+  </si>
+  <si>
+    <t>Novokuznetsk</t>
+  </si>
+  <si>
+    <t>Новокузнецк</t>
+  </si>
+  <si>
+    <t>Novosibirsk</t>
+  </si>
+  <si>
+    <t>Новосибирск</t>
+  </si>
+  <si>
+    <t>Novy Urengoy</t>
+  </si>
+  <si>
+    <t>Новый Уренгой</t>
+  </si>
+  <si>
+    <t>Norilsk</t>
+  </si>
+  <si>
+    <t>Норильск</t>
+  </si>
+  <si>
+    <t>Obninsk</t>
+  </si>
+  <si>
+    <t>Обнинск</t>
+  </si>
+  <si>
+    <t>Oktyabrsky</t>
+  </si>
+  <si>
+    <t>Октябрьский</t>
+  </si>
+  <si>
+    <t>Omsk</t>
+  </si>
+  <si>
+    <t>Омск</t>
+  </si>
+  <si>
+    <t>Orenburg</t>
+  </si>
+  <si>
+    <t>Оренбург</t>
+  </si>
+  <si>
+    <t>Orekhovo-Zuyevo</t>
+  </si>
+  <si>
+    <t>Орехово-Зуево</t>
+  </si>
+  <si>
+    <t>Oryol</t>
+  </si>
+  <si>
+    <t>Орёл</t>
+  </si>
+  <si>
+    <t>Penza</t>
+  </si>
+  <si>
+    <t>Пенза</t>
+  </si>
+  <si>
+    <t>Perm</t>
+  </si>
+  <si>
+    <t>Пермь</t>
+  </si>
+  <si>
+    <t>Petrozavodsk</t>
+  </si>
+  <si>
+    <t>Петрозаводск</t>
+  </si>
+  <si>
+    <t>Petropavlovsk-Kamchatsky</t>
+  </si>
+  <si>
+    <t>Петропавловск-Камчатский</t>
+  </si>
+  <si>
+    <t>Podolsk</t>
+  </si>
+  <si>
+    <t>Подольск</t>
+  </si>
+  <si>
+    <t>Pskov</t>
+  </si>
+  <si>
+    <t>Псков</t>
+  </si>
+  <si>
+    <t>Pyatigorsk</t>
+  </si>
+  <si>
+    <t>Пятигорск</t>
+  </si>
+  <si>
+    <t>Rostov-on-Don</t>
+  </si>
+  <si>
+    <t>Ростов-на-Дону</t>
+  </si>
+  <si>
+    <t>Rybinsk</t>
+  </si>
+  <si>
+    <t>Рыбинск</t>
+  </si>
+  <si>
+    <t>Ryazan</t>
+  </si>
+  <si>
+    <t>Рязань</t>
+  </si>
+  <si>
+    <t>Salekhard</t>
+  </si>
+  <si>
+    <t>Салехард</t>
+  </si>
+  <si>
+    <t>Samara</t>
+  </si>
+  <si>
+    <t>Самара</t>
+  </si>
+  <si>
+    <t>Saint Petersburg</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>Saransk</t>
+  </si>
+  <si>
+    <t>Саранск</t>
+  </si>
+  <si>
+    <t>Saratov</t>
+  </si>
+  <si>
+    <t>Саратов</t>
+  </si>
+  <si>
+    <t>Severodvinsk</t>
+  </si>
+  <si>
+    <t>Северодвинск</t>
+  </si>
+  <si>
+    <t>Smolensk</t>
+  </si>
+  <si>
+    <t>Смоленск</t>
+  </si>
+  <si>
+    <t>Sol-Iletsk</t>
+  </si>
+  <si>
+    <t>Соль-Илецк</t>
+  </si>
+  <si>
+    <t>Sochi</t>
+  </si>
+  <si>
+    <t>Сочи</t>
+  </si>
+  <si>
+    <t>Stavropol</t>
+  </si>
+  <si>
+    <t>Ставрополь</t>
+  </si>
+  <si>
+    <t>Surgut</t>
+  </si>
+  <si>
+    <t>Сургут</t>
+  </si>
+  <si>
+    <t>Syktyvkar</t>
+  </si>
+  <si>
+    <t>Сыктывкар</t>
+  </si>
+  <si>
+    <t>Tambov</t>
+  </si>
+  <si>
+    <t>Тамбов</t>
+  </si>
+  <si>
+    <t>Tver</t>
+  </si>
+  <si>
+    <t>Тверь</t>
+  </si>
+  <si>
+    <t>Tobolsk</t>
+  </si>
+  <si>
+    <t>Тобольск</t>
+  </si>
+  <si>
+    <t>Tolyatti</t>
+  </si>
+  <si>
+    <t>Тольятти</t>
+  </si>
+  <si>
+    <t>Tomsk</t>
+  </si>
+  <si>
+    <t>Томск</t>
+  </si>
+  <si>
+    <t>Tuapse</t>
+  </si>
+  <si>
+    <t>Туапсе</t>
+  </si>
+  <si>
+    <t>Tula</t>
+  </si>
+  <si>
+    <t>Тула</t>
+  </si>
+  <si>
+    <t>Tynda</t>
+  </si>
+  <si>
+    <t>Тында</t>
+  </si>
+  <si>
+    <t>Tyumen</t>
+  </si>
+  <si>
+    <t>Тюмень</t>
+  </si>
+  <si>
+    <t>Ulan-Ude</t>
+  </si>
+  <si>
+    <t>Улан-Уде</t>
+  </si>
+  <si>
+    <t>Ulyanovsk</t>
+  </si>
+  <si>
+    <t>Ульяновск</t>
+  </si>
+  <si>
+    <t>Ufa</t>
+  </si>
+  <si>
+    <t>Уфа</t>
+  </si>
+  <si>
+    <t>Khabarovsk</t>
+  </si>
+  <si>
+    <t>Хабаровск</t>
+  </si>
+  <si>
+    <t>Khanty-Mansiysk</t>
+  </si>
+  <si>
+    <t>Ханты-Мансийск</t>
+  </si>
+  <si>
+    <t>Chebarkul</t>
+  </si>
+  <si>
+    <t>Чебаркуль</t>
+  </si>
+  <si>
+    <t>Cheboksary</t>
+  </si>
+  <si>
+    <t>Чебоксары</t>
+  </si>
+  <si>
+    <t>Chelyabinsk</t>
+  </si>
+  <si>
+    <t>Челябинск</t>
+  </si>
+  <si>
+    <t>Cherepovets</t>
+  </si>
+  <si>
+    <t>Череповец</t>
+  </si>
+  <si>
+    <t>Cherkessk</t>
+  </si>
+  <si>
+    <t>Черкесск</t>
+  </si>
+  <si>
+    <t>Chistopol</t>
+  </si>
+  <si>
+    <t>Чистополь</t>
+  </si>
+  <si>
+    <t>Chita</t>
+  </si>
+  <si>
+    <t>Чита</t>
+  </si>
+  <si>
+    <t>Shadrinsk</t>
+  </si>
+  <si>
+    <t>Шадринск</t>
+  </si>
+  <si>
+    <t>Shatura</t>
+  </si>
+  <si>
+    <t>Шатура</t>
+  </si>
+  <si>
+    <t>Shuya</t>
+  </si>
+  <si>
+    <t>Шуя</t>
+  </si>
+  <si>
+    <t>Elista</t>
+  </si>
+  <si>
+    <t>Элиста</t>
+  </si>
+  <si>
+    <t>Engels</t>
+  </si>
+  <si>
+    <t>Энгельс</t>
+  </si>
+  <si>
+    <t>Yuzhno-Sakhalinsk</t>
+  </si>
+  <si>
+    <t>Южно-Сахалинск</t>
+  </si>
+  <si>
+    <t>Yakutsk</t>
+  </si>
+  <si>
+    <t>Якутск</t>
+  </si>
+  <si>
+    <t>Yaroslavl</t>
+  </si>
+  <si>
+    <t>Ярославль</t>
   </si>
 </sst>
 </file>
@@ -11147,7 +12000,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -11158,6 +12011,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -11239,8 +12096,8 @@
   </sheetPr>
   <dimension ref="A1:E65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A226" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B239" activeCellId="0" sqref="B239"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -31331,4 +32188,1184 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:B166"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>3679</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>3681</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>3683</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3684</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>3685</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3686</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>3687</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3688</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>3689</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>3691</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>3692</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>3693</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>3694</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>3695</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>3696</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>3697</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>3698</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>3699</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>3701</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>3703</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>3704</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>3705</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>3706</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>3707</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>3709</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>3710</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>3711</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>3713</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>3715</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>3716</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>3717</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>3718</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>3719</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>3721</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>3723</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>3724</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>3725</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>3727</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>3728</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>3729</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>3731</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>3733</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>3735</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>3737</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>3739</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>3741</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>3743</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>3745</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>3747</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>3749</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>3751</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>3753</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>3755</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>3756</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>3758</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>3759</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>3761</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>3763</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>3765</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>3766</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>3767</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>3768</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>3769</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>3771</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>3773</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>3775</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>3777</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>3778</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>3779</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>3781</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>3782</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>3783</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>3785</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>3786</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
+        <v>3787</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
+        <v>3789</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
+        <v>3791</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
+        <v>3793</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>3794</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>3795</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
+        <v>3799</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
+        <v>3801</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
+        <v>3803</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>3804</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
+        <v>3807</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>3808</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
+        <v>3809</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>3811</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>3812</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>3813</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>3814</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>3815</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
+        <v>3817</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>3818</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>3820</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
+        <v>3821</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>3822</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
+        <v>3823</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>3824</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="s">
+        <v>3825</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>3826</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="s">
+        <v>3827</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>3828</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="s">
+        <v>3829</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="s">
+        <v>3831</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>3832</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
+        <v>3833</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>3834</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="s">
+        <v>3835</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>3836</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="s">
+        <v>3837</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="s">
+        <v>3839</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="s">
+        <v>3841</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
+        <v>3843</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="s">
+        <v>3845</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="s">
+        <v>3847</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>3848</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="s">
+        <v>3849</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="s">
+        <v>3851</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>3852</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3" t="s">
+        <v>3853</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>3854</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3" t="s">
+        <v>3855</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>3856</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3" t="s">
+        <v>3857</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>3858</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3" t="s">
+        <v>3859</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>3860</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3" t="s">
+        <v>3861</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>3862</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="3" t="s">
+        <v>3863</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>3864</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="3" t="s">
+        <v>3865</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>3866</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="37.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="3" t="s">
+        <v>3867</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>3868</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="3" t="s">
+        <v>3869</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="3" t="s">
+        <v>3871</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>3872</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="3" t="s">
+        <v>3873</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3" t="s">
+        <v>3875</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>3876</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="3" t="s">
+        <v>3877</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>3878</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3" t="s">
+        <v>3879</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="3" t="s">
+        <v>3881</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>3882</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="3" t="s">
+        <v>3883</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>3884</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="3" t="s">
+        <v>3885</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>3886</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="3" t="s">
+        <v>3887</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>3888</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="3" t="s">
+        <v>3889</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="3" t="s">
+        <v>3891</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="3" t="s">
+        <v>3893</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>3894</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="3" t="s">
+        <v>3895</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="3" t="s">
+        <v>3897</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="3" t="s">
+        <v>3899</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="3" t="s">
+        <v>3901</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>3902</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="3" t="s">
+        <v>3903</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="3" t="s">
+        <v>3905</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="3" t="s">
+        <v>3907</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="3" t="s">
+        <v>3909</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="3" t="s">
+        <v>3911</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="3" t="s">
+        <v>3913</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="3" t="s">
+        <v>3915</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>3916</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="3" t="s">
+        <v>3917</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>3918</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="3" t="s">
+        <v>3919</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="3" t="s">
+        <v>3921</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="3" t="s">
+        <v>3923</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>3924</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="3" t="s">
+        <v>3925</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="3" t="s">
+        <v>3927</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>3928</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="3" t="s">
+        <v>3929</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>3930</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="3" t="s">
+        <v>3931</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>3932</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="3" t="s">
+        <v>3933</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>3934</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="3" t="s">
+        <v>3935</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="3" t="s">
+        <v>3937</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>3938</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="3" t="s">
+        <v>3939</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="3" t="s">
+        <v>3941</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="3" t="s">
+        <v>3943</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>3944</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="3" t="s">
+        <v>3945</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="3" t="s">
+        <v>3947</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="3" t="s">
+        <v>3949</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="3" t="s">
+        <v>3951</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>3952</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="3" t="s">
+        <v>3953</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="3" t="s">
+        <v>3955</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>3956</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="3" t="s">
+        <v>3957</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="3" t="s">
+        <v>3959</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="3" t="s">
+        <v>3961</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="13.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>